--- a/Debugg Piotr/MCBXFB_PP-Piotr-Crosscheck_Inner_Iron_600_20220519_104910 - normrot/Summary_MM_MCBXFB_PP-Piotr-Crosscheck_Inner_Iron_600_20220519_104910 - normrot.xlsx
+++ b/Debugg Piotr/MCBXFB_PP-Piotr-Crosscheck_Inner_Iron_600_20220519_104910 - normrot/Summary_MM_MCBXFB_PP-Piotr-Crosscheck_Inner_Iron_600_20220519_104910 - normrot.xlsx
@@ -28,7 +28,7 @@
     <t>y [m]</t>
   </si>
   <si>
-    <t>Angle [red]</t>
+    <t>Angle (Applied Calib) [mrad]</t>
   </si>
   <si>
     <t>Space</t>
@@ -559,19 +559,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-0.002954759848805239</v>
+        <v>-2.954759848805239</v>
       </c>
       <c r="C4">
-        <v>-0.0004974263698575363</v>
+        <v>-0.4974263698575365</v>
       </c>
       <c r="D4">
-        <v>0.0004053695643157866</v>
+        <v>0.4053695643157866</v>
       </c>
       <c r="E4">
-        <v>0.0002811431546886523</v>
+        <v>0.2811431546886523</v>
       </c>
       <c r="F4">
-        <v>-0.0073606667135073</v>
+        <v>-7.360666713507299</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -579,19 +579,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.0007524330689544388</v>
+        <v>0.752433068954439</v>
       </c>
       <c r="C5">
-        <v>1.295562415451979E-06</v>
+        <v>0.001295562415451992</v>
       </c>
       <c r="D5">
-        <v>-0.0009241341380029527</v>
+        <v>-0.9241341380029529</v>
       </c>
       <c r="E5">
-        <v>-0.001215475777905821</v>
+        <v>-1.215475777905821</v>
       </c>
       <c r="F5">
-        <v>-0.0003479236270208457</v>
+        <v>-0.3479236270208457</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -599,19 +599,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-0.3939564065802543</v>
+        <v>-417.1564065802543</v>
       </c>
       <c r="C6">
-        <v>0.0212020475948903</v>
+        <v>-1.997952405109698</v>
       </c>
       <c r="D6">
-        <v>0.02169353136205106</v>
+        <v>-1.506468637948941</v>
       </c>
       <c r="E6">
-        <v>0.02092470750746133</v>
+        <v>-2.275292492538671</v>
       </c>
       <c r="F6">
-        <v>-0.3972324421850738</v>
+        <v>-420.4324421850738</v>
       </c>
     </row>
     <row r="7" spans="1:6">
